--- a/solutions/google/modern-workspace/workspace/presales/infrastructure-costs.xlsx
+++ b/solutions/google/modern-workspace/workspace/presales/infrastructure-costs.xlsx
@@ -14,9 +14,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Sizing Guidelines'!$A$2:$F$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Infrastructure Costs'!$A$2:$K$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Infrastructure Costs'!$A$2:$K$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Credits'!$A$2:$D$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'3-Year Summary'!$A$2:$G$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'3-Year Summary'!$A$2:$G$6</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
@@ -836,7 +836,7 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>November 22, 2025</t>
+          <t>November 24, 2025</t>
         </is>
       </c>
     </row>
@@ -1223,7 +1223,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -1457,624 +1457,36 @@
       </c>
     </row>
     <row r="6" ht="26" customHeight="1">
-      <c r="A6" s="47" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B6" s="48" t="inlineStr">
-        <is>
-          <t>Migration Planning and Design</t>
-        </is>
-      </c>
-      <c r="C6" s="48" t="inlineStr">
-        <is>
-          <t>Requirements gathering and migration strategy</t>
-        </is>
-      </c>
-      <c r="D6" s="49" t="n">
-        <v>40</v>
-      </c>
-      <c r="E6" s="48" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-      <c r="F6" s="50" t="n">
-        <v>200</v>
-      </c>
-      <c r="G6" s="50">
-        <f>D6*F6</f>
-        <v/>
-      </c>
-      <c r="H6" s="50">
-        <f>0</f>
-        <v/>
-      </c>
-      <c r="I6" s="50">
-        <f>0</f>
-        <v/>
-      </c>
-      <c r="J6" s="50">
-        <f>G6</f>
-        <v/>
-      </c>
-      <c r="K6" s="48" t="inlineStr">
-        <is>
-          <t>One-time planning effort</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="26" customHeight="1">
-      <c r="A7" s="43" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B7" s="44" t="inlineStr">
-        <is>
-          <t>Email Migration from Exchange</t>
-        </is>
-      </c>
-      <c r="C7" s="44" t="inlineStr">
-        <is>
-          <t>Mailbox migration (500 users avg 5 GB each)</t>
-        </is>
-      </c>
-      <c r="D7" s="45" t="n">
-        <v>500</v>
-      </c>
-      <c r="E7" s="44" t="inlineStr">
-        <is>
-          <t>Mailboxes</t>
-        </is>
-      </c>
-      <c r="F7" s="46" t="n">
-        <v>40</v>
-      </c>
-      <c r="G7" s="46">
-        <f>D7*F7</f>
-        <v/>
-      </c>
-      <c r="H7" s="46">
-        <f>0</f>
-        <v/>
-      </c>
-      <c r="I7" s="46">
-        <f>0</f>
-        <v/>
-      </c>
-      <c r="J7" s="46">
-        <f>G7</f>
-        <v/>
-      </c>
-      <c r="K7" s="44" t="inlineStr">
-        <is>
-          <t>Email data migration</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="26" customHeight="1">
-      <c r="A8" s="47" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B8" s="48" t="inlineStr">
-        <is>
-          <t>File Migration to Drive</t>
-        </is>
-      </c>
-      <c r="C8" s="48" t="inlineStr">
-        <is>
-          <t>File server to Google Drive migration (3 TB total)</t>
-        </is>
-      </c>
-      <c r="D8" s="49" t="n">
-        <v>3000</v>
-      </c>
-      <c r="E8" s="48" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="F8" s="50" t="n">
-        <v>10</v>
-      </c>
-      <c r="G8" s="50">
-        <f>D8*F8</f>
-        <v/>
-      </c>
-      <c r="H8" s="50">
-        <f>0</f>
-        <v/>
-      </c>
-      <c r="I8" s="50">
-        <f>0</f>
-        <v/>
-      </c>
-      <c r="J8" s="50">
-        <f>G8</f>
-        <v/>
-      </c>
-      <c r="K8" s="48" t="inlineStr">
-        <is>
-          <t>File data migration</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="26" customHeight="1">
-      <c r="A9" s="43" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B9" s="44" t="inlineStr">
-        <is>
-          <t>Calendar and Contacts Migration</t>
-        </is>
-      </c>
-      <c r="C9" s="44" t="inlineStr">
-        <is>
-          <t>Calendar and contact migration (500 users)</t>
-        </is>
-      </c>
-      <c r="D9" s="45" t="n">
-        <v>500</v>
-      </c>
-      <c r="E9" s="44" t="inlineStr">
-        <is>
-          <t>Users</t>
-        </is>
-      </c>
-      <c r="F9" s="46" t="n">
-        <v>8</v>
-      </c>
-      <c r="G9" s="46">
-        <f>D9*F9</f>
-        <v/>
-      </c>
-      <c r="H9" s="46">
-        <f>0</f>
-        <v/>
-      </c>
-      <c r="I9" s="46">
-        <f>0</f>
-        <v/>
-      </c>
-      <c r="J9" s="46">
-        <f>G9</f>
-        <v/>
-      </c>
-      <c r="K9" s="44" t="inlineStr">
-        <is>
-          <t>Schedule and contact data</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="26" customHeight="1">
-      <c r="A10" s="47" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B10" s="48" t="inlineStr">
-        <is>
-          <t>Distribution List Migration</t>
-        </is>
-      </c>
-      <c r="C10" s="48" t="inlineStr">
-        <is>
-          <t>Group and distribution list migration (150 groups)</t>
-        </is>
-      </c>
-      <c r="D10" s="49" t="n">
-        <v>150</v>
-      </c>
-      <c r="E10" s="48" t="inlineStr">
-        <is>
-          <t>Groups</t>
-        </is>
-      </c>
-      <c r="F10" s="50" t="n">
-        <v>15</v>
-      </c>
-      <c r="G10" s="50">
-        <f>D10*F10</f>
-        <v/>
-      </c>
-      <c r="H10" s="50">
-        <f>0</f>
-        <v/>
-      </c>
-      <c r="I10" s="50">
-        <f>0</f>
-        <v/>
-      </c>
-      <c r="J10" s="50">
-        <f>G10</f>
-        <v/>
-      </c>
-      <c r="K10" s="48" t="inlineStr">
-        <is>
-          <t>Email group configuration</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="26" customHeight="1">
-      <c r="A11" s="43" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B11" s="44" t="inlineStr">
-        <is>
-          <t>Configuration and Setup</t>
-        </is>
-      </c>
-      <c r="C11" s="44" t="inlineStr">
-        <is>
-          <t>Google Admin console and security configuration</t>
-        </is>
-      </c>
-      <c r="D11" s="45" t="n">
-        <v>32</v>
-      </c>
-      <c r="E11" s="44" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-      <c r="F11" s="46" t="n">
-        <v>175</v>
-      </c>
-      <c r="G11" s="46">
-        <f>D11*F11</f>
-        <v/>
-      </c>
-      <c r="H11" s="46">
-        <f>0</f>
-        <v/>
-      </c>
-      <c r="I11" s="46">
-        <f>0</f>
-        <v/>
-      </c>
-      <c r="J11" s="46">
-        <f>G11</f>
-        <v/>
-      </c>
-      <c r="K11" s="44" t="inlineStr">
-        <is>
-          <t>Platform configuration</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="26" customHeight="1">
-      <c r="A12" s="47" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B12" s="48" t="inlineStr">
-        <is>
-          <t>SSO and Identity Integration</t>
-        </is>
-      </c>
-      <c r="C12" s="48" t="inlineStr">
-        <is>
-          <t>SAML SSO and directory sync configuration</t>
-        </is>
-      </c>
-      <c r="D12" s="49" t="n">
-        <v>24</v>
-      </c>
-      <c r="E12" s="48" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-      <c r="F12" s="50" t="n">
-        <v>200</v>
-      </c>
-      <c r="G12" s="50">
-        <f>D12*F12</f>
-        <v/>
-      </c>
-      <c r="H12" s="50">
-        <f>0</f>
-        <v/>
-      </c>
-      <c r="I12" s="50">
-        <f>0</f>
-        <v/>
-      </c>
-      <c r="J12" s="50">
-        <f>G12</f>
-        <v/>
-      </c>
-      <c r="K12" s="48" t="inlineStr">
-        <is>
-          <t>Identity provider integration</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="26" customHeight="1">
-      <c r="A13" s="43" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B13" s="44" t="inlineStr">
-        <is>
-          <t>Security Policy Configuration</t>
-        </is>
-      </c>
-      <c r="C13" s="44" t="inlineStr">
-        <is>
-          <t>DLP policies mobile management endpoint controls</t>
-        </is>
-      </c>
-      <c r="D13" s="45" t="n">
-        <v>16</v>
-      </c>
-      <c r="E13" s="44" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-      <c r="F13" s="46" t="n">
-        <v>175</v>
-      </c>
-      <c r="G13" s="46">
-        <f>D13*F13</f>
-        <v/>
-      </c>
-      <c r="H13" s="46">
-        <f>0</f>
-        <v/>
-      </c>
-      <c r="I13" s="46">
-        <f>0</f>
-        <v/>
-      </c>
-      <c r="J13" s="46">
-        <f>G13</f>
-        <v/>
-      </c>
-      <c r="K13" s="44" t="inlineStr">
-        <is>
-          <t>Security hardening</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="26" customHeight="1">
-      <c r="A14" s="47" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B14" s="48" t="inlineStr">
-        <is>
-          <t>Administrator Training</t>
-        </is>
-      </c>
-      <c r="C14" s="48" t="inlineStr">
-        <is>
-          <t>Google Admin console and GAM training (2 days)</t>
-        </is>
-      </c>
-      <c r="D14" s="49" t="n">
-        <v>16</v>
-      </c>
-      <c r="E14" s="48" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-      <c r="F14" s="50" t="n">
-        <v>150</v>
-      </c>
-      <c r="G14" s="50">
-        <f>D14*F14</f>
-        <v/>
-      </c>
-      <c r="H14" s="50">
-        <f>0</f>
-        <v/>
-      </c>
-      <c r="I14" s="50">
-        <f>0</f>
-        <v/>
-      </c>
-      <c r="J14" s="50">
-        <f>G14</f>
-        <v/>
-      </c>
-      <c r="K14" s="48" t="inlineStr">
-        <is>
-          <t>Admin enablement</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="26" customHeight="1">
-      <c r="A15" s="43" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B15" s="44" t="inlineStr">
-        <is>
-          <t>End User Training</t>
-        </is>
-      </c>
-      <c r="C15" s="44" t="inlineStr">
-        <is>
-          <t>Virtual training sessions (10 sessions @ 4 hours each)</t>
-        </is>
-      </c>
-      <c r="D15" s="45" t="n">
-        <v>40</v>
-      </c>
-      <c r="E15" s="44" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-      <c r="F15" s="46" t="n">
-        <v>125</v>
-      </c>
-      <c r="G15" s="46">
-        <f>D15*F15</f>
-        <v/>
-      </c>
-      <c r="H15" s="46">
-        <f>0</f>
-        <v/>
-      </c>
-      <c r="I15" s="46">
-        <f>0</f>
-        <v/>
-      </c>
-      <c r="J15" s="46">
-        <f>G15</f>
-        <v/>
-      </c>
-      <c r="K15" s="44" t="inlineStr">
-        <is>
-          <t>User enablement</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="26" customHeight="1">
-      <c r="A16" s="47" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B16" s="48" t="inlineStr">
-        <is>
-          <t>Training Materials Development</t>
-        </is>
-      </c>
-      <c r="C16" s="48" t="inlineStr">
-        <is>
-          <t>Custom quick start guides and video tutorials</t>
-        </is>
-      </c>
-      <c r="D16" s="49" t="n">
-        <v>24</v>
-      </c>
-      <c r="E16" s="48" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-      <c r="F16" s="50" t="n">
-        <v>140</v>
-      </c>
-      <c r="G16" s="50">
-        <f>D16*F16</f>
-        <v/>
-      </c>
-      <c r="H16" s="50">
-        <f>0</f>
-        <v/>
-      </c>
-      <c r="I16" s="50">
-        <f>0</f>
-        <v/>
-      </c>
-      <c r="J16" s="50">
-        <f>G16</f>
-        <v/>
-      </c>
-      <c r="K16" s="48" t="inlineStr">
-        <is>
-          <t>Documentation creation</t>
-        </is>
-      </c>
-    </row>
-    <row r="17" ht="26" customHeight="1">
-      <c r="A17" s="43" t="inlineStr">
-        <is>
-          <t>Professional Services</t>
-        </is>
-      </c>
-      <c r="B17" s="44" t="inlineStr">
-        <is>
-          <t>Go-Live Support</t>
-        </is>
-      </c>
-      <c r="C17" s="44" t="inlineStr">
-        <is>
-          <t>Post-migration support (2 weeks)</t>
-        </is>
-      </c>
-      <c r="D17" s="45" t="n">
-        <v>80</v>
-      </c>
-      <c r="E17" s="44" t="inlineStr">
-        <is>
-          <t>Hours</t>
-        </is>
-      </c>
-      <c r="F17" s="46" t="n">
-        <v>110</v>
-      </c>
-      <c r="G17" s="46">
-        <f>D17*F17</f>
-        <v/>
-      </c>
-      <c r="H17" s="46">
-        <f>0</f>
-        <v/>
-      </c>
-      <c r="I17" s="46">
-        <f>0</f>
-        <v/>
-      </c>
-      <c r="J17" s="46">
-        <f>G17</f>
-        <v/>
-      </c>
-      <c r="K17" s="44" t="inlineStr">
-        <is>
-          <t>Hypercare period support</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" ht="26" customHeight="1">
-      <c r="A18" s="51" t="inlineStr">
+      <c r="A6" s="51" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B18" s="52" t="n"/>
-      <c r="C18" s="52" t="n"/>
-      <c r="D18" s="52" t="n"/>
-      <c r="E18" s="52" t="n"/>
-      <c r="F18" s="52" t="n"/>
-      <c r="G18" s="53">
-        <f>SUM(G3:G17)</f>
-        <v/>
-      </c>
-      <c r="H18" s="53">
-        <f>SUM(H3:H17)</f>
-        <v/>
-      </c>
-      <c r="I18" s="53">
-        <f>SUM(I3:I17)</f>
-        <v/>
-      </c>
-      <c r="J18" s="53">
-        <f>SUM(J3:J17)</f>
-        <v/>
-      </c>
-      <c r="K18" s="52" t="n"/>
+      <c r="B6" s="52" t="n"/>
+      <c r="C6" s="52" t="n"/>
+      <c r="D6" s="52" t="n"/>
+      <c r="E6" s="52" t="n"/>
+      <c r="F6" s="52" t="n"/>
+      <c r="G6" s="53">
+        <f>SUM(G3:G5)</f>
+        <v/>
+      </c>
+      <c r="H6" s="53">
+        <f>SUM(H3:H5)</f>
+        <v/>
+      </c>
+      <c r="I6" s="53">
+        <f>SUM(I3:I5)</f>
+        <v/>
+      </c>
+      <c r="J6" s="53">
+        <f>SUM(J3:J5)</f>
+        <v/>
+      </c>
+      <c r="K6" s="52" t="n"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:K18"/>
+  <autoFilter ref="A2:K6"/>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
   </mergeCells>
@@ -2195,7 +1607,7 @@
     <row r="6" ht="26" customHeight="1">
       <c r="A6" s="47" t="inlineStr">
         <is>
-          <t>Cloud Infrastructure</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B6" s="48" t="inlineStr">
@@ -2227,7 +1639,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -2323,7 +1735,7 @@
     <row r="4" ht="26" customHeight="1">
       <c r="A4" s="47" t="inlineStr">
         <is>
-          <t>Professional Services</t>
+          <t>Support &amp; Maintenance</t>
         </is>
       </c>
       <c r="B4" s="50">
@@ -2354,7 +1766,7 @@
     <row r="5" ht="26" customHeight="1">
       <c r="A5" s="43" t="inlineStr">
         <is>
-          <t>Support &amp; Maintenance</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B5" s="46">
@@ -2383,69 +1795,38 @@
       </c>
     </row>
     <row r="6" ht="26" customHeight="1">
-      <c r="A6" s="47" t="inlineStr">
-        <is>
-          <t>Cloud Infrastructure</t>
-        </is>
-      </c>
-      <c r="B6" s="50">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A6,'Infrastructure Costs'!$G:$G)</f>
-        <v/>
-      </c>
-      <c r="C6" s="50">
-        <f>SUMIF(Credits!$A:$A,A6,Credits!$C:$C)</f>
-        <v/>
-      </c>
-      <c r="D6" s="50">
-        <f>B6+C6</f>
-        <v/>
-      </c>
-      <c r="E6" s="50">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A6,'Infrastructure Costs'!$H:$H)</f>
-        <v/>
-      </c>
-      <c r="F6" s="50">
-        <f>SUMIF('Infrastructure Costs'!$A:$A,A6,'Infrastructure Costs'!$I:$I)</f>
-        <v/>
-      </c>
-      <c r="G6" s="50">
-        <f>D6+E6+F6</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="26" customHeight="1">
-      <c r="A7" s="51" t="inlineStr">
+      <c r="A6" s="51" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B7" s="53">
-        <f>SUM(B3:B6)</f>
-        <v/>
-      </c>
-      <c r="C7" s="53">
-        <f>SUM(C3:C6)</f>
-        <v/>
-      </c>
-      <c r="D7" s="53">
-        <f>SUM(D3:D6)</f>
-        <v/>
-      </c>
-      <c r="E7" s="53">
-        <f>SUM(E3:E6)</f>
-        <v/>
-      </c>
-      <c r="F7" s="53">
-        <f>SUM(F3:F6)</f>
-        <v/>
-      </c>
-      <c r="G7" s="53">
-        <f>SUM(G3:G6)</f>
+      <c r="B6" s="53">
+        <f>SUM(B3:B5)</f>
+        <v/>
+      </c>
+      <c r="C6" s="53">
+        <f>SUM(C3:C5)</f>
+        <v/>
+      </c>
+      <c r="D6" s="53">
+        <f>SUM(D3:D5)</f>
+        <v/>
+      </c>
+      <c r="E6" s="53">
+        <f>SUM(E3:E5)</f>
+        <v/>
+      </c>
+      <c r="F6" s="53">
+        <f>SUM(F3:F5)</f>
+        <v/>
+      </c>
+      <c r="G6" s="53">
+        <f>SUM(G3:G5)</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G7"/>
+  <autoFilter ref="A2:G6"/>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>

--- a/solutions/google/modern-workspace/workspace/presales/infrastructure-costs.xlsx
+++ b/solutions/google/modern-workspace/workspace/presales/infrastructure-costs.xlsx
@@ -1639,7 +1639,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -1704,7 +1704,7 @@
     <row r="3" ht="26" customHeight="1">
       <c r="A3" s="43" t="inlineStr">
         <is>
-          <t>Software Licenses</t>
+          <t>Cloud Services</t>
         </is>
       </c>
       <c r="B3" s="46">
@@ -1735,7 +1735,7 @@
     <row r="4" ht="26" customHeight="1">
       <c r="A4" s="47" t="inlineStr">
         <is>
-          <t>Support &amp; Maintenance</t>
+          <t>Software Licenses</t>
         </is>
       </c>
       <c r="B4" s="50">
@@ -1766,7 +1766,7 @@
     <row r="5" ht="26" customHeight="1">
       <c r="A5" s="43" t="inlineStr">
         <is>
-          <t>Cloud Services</t>
+          <t>Support &amp; Maintenance</t>
         </is>
       </c>
       <c r="B5" s="46">
@@ -1797,34 +1797,66 @@
     <row r="6" ht="26" customHeight="1">
       <c r="A6" s="51" t="inlineStr">
         <is>
+          <t>Professional Services</t>
+        </is>
+      </c>
+      <c r="B6" s="53">
+        <f>SUMIF('Infrastructure Costs'!$A:$A,A6,'Infrastructure Costs'!$G:$G)</f>
+        <v/>
+      </c>
+      <c r="C6" s="53">
+        <f>SUMIF(Credits!$A:$A,A6,Credits!$C:$C)</f>
+        <v/>
+      </c>
+      <c r="D6" s="53">
+        <f>B6+C6</f>
+        <v/>
+      </c>
+      <c r="E6" s="53">
+        <f>SUMIF('Infrastructure Costs'!$A:$A,A6,'Infrastructure Costs'!$H:$H)</f>
+        <v/>
+      </c>
+      <c r="F6" s="53">
+        <f>SUMIF('Infrastructure Costs'!$A:$A,A6,'Infrastructure Costs'!$I:$I)</f>
+        <v/>
+      </c>
+      <c r="G6" s="53">
+        <f>D6+E6+F6</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B6" s="53">
-        <f>SUM(B3:B5)</f>
-        <v/>
-      </c>
-      <c r="C6" s="53">
-        <f>SUM(C3:C5)</f>
-        <v/>
-      </c>
-      <c r="D6" s="53">
-        <f>SUM(D3:D5)</f>
-        <v/>
-      </c>
-      <c r="E6" s="53">
-        <f>SUM(E3:E5)</f>
-        <v/>
-      </c>
-      <c r="F6" s="53">
-        <f>SUM(F3:F5)</f>
-        <v/>
-      </c>
-      <c r="G6" s="53">
-        <f>SUM(G3:G5)</f>
-        <v/>
-      </c>
-    </row>
+      <c r="B7">
+        <f>SUM(B3:B6)</f>
+        <v/>
+      </c>
+      <c r="C7">
+        <f>SUM(C3:C6)</f>
+        <v/>
+      </c>
+      <c r="D7">
+        <f>SUM(D3:D6)</f>
+        <v/>
+      </c>
+      <c r="E7">
+        <f>SUM(E3:E6)</f>
+        <v/>
+      </c>
+      <c r="F7">
+        <f>SUM(F3:F6)</f>
+        <v/>
+      </c>
+      <c r="G7">
+        <f>SUM(G3:G6)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8"/>
   </sheetData>
   <autoFilter ref="A2:G6"/>
   <mergeCells count="1">
